--- a/3_seminar.xlsx
+++ b/3_seminar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\enter_bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD6E945-23E3-4275-B1D0-2F89654064A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062691FC-724D-4410-8950-2A7BE9AD7CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19103" yWindow="-98" windowWidth="28995" windowHeight="15796" xr2:uid="{581642F1-1AF7-464B-9311-530095A85E16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{581642F1-1AF7-464B-9311-530095A85E16}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>ID_Кабинета</t>
   </si>
@@ -145,13 +145,20 @@
   </si>
   <si>
     <t>ID_записи</t>
+  </si>
+  <si>
+    <t>Опишите базу данных для школьного кабинета, в рамках которой можно фиксировать, кто и в какое время сидел за той или иной партой.
+— Место ученика — это ряд, парта, вариант.
+— В течение одного дня у разных классов бывает несколько уроков.
+— Создайте минимум 3 таблицы: «Кабинет», «Ученик» и сводная таблица, где отображаются парты и ученики.
+— Используйте поля «началоурока» и «конецурока» с типом данных TimeStamp.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,16 +176,66 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2C2D30"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -201,19 +258,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="20% — акцент1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% — акцент2" xfId="2" builtinId="34"/>
+    <cellStyle name="20% — акцент3" xfId="3" builtinId="38"/>
+    <cellStyle name="20% — акцент4" xfId="4" builtinId="42"/>
+    <cellStyle name="20% — акцент5" xfId="5" builtinId="46"/>
+    <cellStyle name="20% — акцент6" xfId="6" builtinId="50"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -235,13 +403,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>401956</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>158075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>421531</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -285,13 +453,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>417478</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>159320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>674254</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>160101</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -338,13 +506,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>406555</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>92927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>36753</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>93346</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -391,13 +559,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>497159</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>88280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>501805</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>99897</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -441,13 +609,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>493465</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>99897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9293</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>101687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -494,13 +662,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>501805</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>86374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>18586</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>90069</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -547,13 +715,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>479652</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>91014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>480487</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>49326</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -597,13 +765,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>480897</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>81311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>16262</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>83634</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -650,13 +818,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>471276</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>48983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>8545</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>51306</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -703,13 +871,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>478156</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>101625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -753,13 +921,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>473975</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>98340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>11244</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>100663</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -806,13 +974,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>480597</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>164712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>20723</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>167035</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -859,13 +1027,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>893885</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>91586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>901212</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>69605</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -909,13 +1077,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>897548</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>91586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1069731</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -962,13 +1130,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>797914</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>61475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>816429</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1012,13 +1180,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>789214</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>65796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>648433</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>73479</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1065,13 +1233,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>106136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2219</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>106268</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1118,13 +1286,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>319088</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1168,13 +1336,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1218,13 +1386,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1270,22 +1438,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>302310</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>46819</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>546809</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>80449</xdr:rowOff>
+      <xdr:colOff>147366</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>153715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>391865</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>187345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="TextBox 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6CBA63-9284-4CD3-A95F-8A98B808DE79}"/>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0EEC412-6A7B-4912-AA64-E14499552A27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1293,8 +1461,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3855868" y="4175541"/>
-          <a:ext cx="244499" cy="213139"/>
+          <a:off x="3601432" y="2820715"/>
+          <a:ext cx="244499" cy="224130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1303,11 +1471,7 @@
           <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1341,22 +1505,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>399317</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>641912</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:colOff>224568</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>469067</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="TextBox 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56561BDB-AB6A-4DEF-9BA8-313A2E910E08}"/>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23ECD0DA-67AB-4A17-9B2B-7146626A1715}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,8 +1528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3952875" y="5348654"/>
-          <a:ext cx="242595" cy="211234"/>
+          <a:off x="3678634" y="3018233"/>
+          <a:ext cx="244499" cy="224130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1374,11 +1538,141 @@
           <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>231587</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>157725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476086</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>855</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047608AF-1280-4397-B169-07F2B50C9939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3685653" y="3205725"/>
+          <a:ext cx="244499" cy="224130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223566</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>84534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>468065</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6237D625-1801-4118-B4B9-1D7466B0B32A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3677632" y="4085034"/>
+          <a:ext cx="244499" cy="224130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1411,22 +1705,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>160240</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>12749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>402834</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>49237</xdr:rowOff>
+      <xdr:colOff>160421</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>404920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123867</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="TextBox 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F212BC8-C8F2-4239-B9FE-027B628096AF}"/>
+        <xdr:cNvPr id="32" name="TextBox 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B86A5F5-6CDD-4F2C-B52A-BF7031FABEF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,8 +1728,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3713798" y="4859509"/>
-          <a:ext cx="242594" cy="215997"/>
+          <a:off x="3614487" y="471237"/>
+          <a:ext cx="244499" cy="224130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1444,11 +1738,7 @@
           <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1480,23 +1770,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>774896</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>118330</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1017491</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>151959</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>162426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396899</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5556</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="TextBox 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3093D95C-34A1-4F58-84CD-559496A2BAF2}"/>
+        <xdr:cNvPr id="33" name="TextBox 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27C9335-492F-45C8-A5B1-D353A34AD3B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,8 +1794,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="774896" y="3888032"/>
-          <a:ext cx="242595" cy="213139"/>
+          <a:off x="3606466" y="1686426"/>
+          <a:ext cx="244499" cy="224130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1514,11 +1804,271 @@
           <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60137</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>181789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304636</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9900FB2-45A8-4FCD-86FA-1E8A8699363E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514203" y="5134789"/>
+          <a:ext cx="244499" cy="224130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>347893</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>592392</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>172306</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B645EEE6-FE82-4675-95B7-C9182D7403C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3801959" y="6044176"/>
+          <a:ext cx="244499" cy="224130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>292768</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>537267</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>20596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77A9061-8BFC-4051-AA77-DF9A7A0E8616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3746834" y="177466"/>
+          <a:ext cx="244499" cy="224130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>535385</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>779884</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33610C54-3AC5-4794-A1E6-4DCE4116CA6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="535385" y="3780233"/>
+          <a:ext cx="244499" cy="224130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1544,6 +2094,138 @@
             <a:t>N</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>756987</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>40105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1001486</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>73735</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25499ADC-B08B-4E38-9D1A-EE1444E6B382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="756987" y="4040605"/>
+          <a:ext cx="244499" cy="224130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230085</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>97004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>474584</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>130634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextBox 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C71EC94-AAB3-4E77-A1EA-373BE92EE901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3670991" y="4288004"/>
+          <a:ext cx="244499" cy="224130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1849,385 +2531,404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46EDCDA-3958-44A6-8C6E-C04A7842F7A9}">
-  <dimension ref="B2:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F2" s="2" t="s">
+    <row r="1" spans="1:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H4" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F4" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F5" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F6" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F7" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F9" s="2" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F11" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H12" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F13" s="2" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F15" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H16" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F16" s="1" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H17" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F17" s="1" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H18" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F18" s="1" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H19" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="F20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H20" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="10">
         <v>1</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H21" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="10">
         <v>1</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="10">
         <v>1</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D24" s="10">
         <v>1</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H24" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="10">
         <v>1</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H25" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F25" s="1" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H26" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H29" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D29" s="1" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H30" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H31" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F31" s="1" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H32" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F32" s="1" t="s">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H33" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F23:H23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
